--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DocumentsDDrive\C1. Certifications\Intelligent Systems Masters\3. Courses\shared_folder\IRS-CS-2019-04-27-IS1PT-GRP-ISSChatBot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A462E5A0-F654-47D9-89AA-B781F611BF4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2593C35D-BC84-46E4-90AC-2D257FB60D74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,20 @@
     <sheet name="module" sheetId="5" r:id="rId5"/>
     <sheet name="lecturer" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="916">
   <si>
     <t>Name</t>
   </si>
@@ -70,49 +78,6 @@
 Internet Application Development
 Project Management
 Mobile Solution Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Fees &amp; Loans  
- Singaporeans
-Subtotal
-S$10,013.29  
-$9,500.00 - Annual Tuition Fee
-$513.29 - Miscellaneous Fees
- Singapore Permanent Residents
-Subtotal
-S$15,663.29
-$15,150.00 - Annual Tuition Fee
-$513.29 - Miscellaneous Fees
- International Students with Service Obligation (only applicable till August 2019 intake)
-Subtotal
-S$23,563.29  
-$23,050.00 - Annual Tuition Fee
-$513.29  - Miscellaneous Fees
- International Students without Service Obligation
-Subtotal
-S$37,463.29
-$36,950.00 - Annual Tuition Fee
-$513.29  - Miscellaneous Fees
-The fees above are the Academic Year 2018 / 2019 (GDipSA Intakes 47 &amp; 48). 
-Fees are correct at time of posting and are subjected to changes without prior notice. The University reserves the right to alter the fees at any time. Fees for subsequent years are under review.
-The Ministry of Education (MOE) of Singapore offers a tuition subsidy, known as the MOE subsidy. This subsidy will be administered automatically to eligible applicants. Read more about the eligibility guidelines.
-For Singapore Citizens and Singapore Permanent Resident students, the fees quoted are subsidised by the Singapore government, through MOE, and are exclusive of GST. The applicable GST will be subsidised by the MOE as well.
-What is Service Obligation?
-The Service Obligation scheme is only applicable to international students.
-The service obligation will require you to work in Singapore-based companies for 3 years upon graduation. Singapore-based companies refer to local and international companies that have a base in Singapore that is registered with the Accounting &amp; Corporate Regulatory Authority (ACRA) as well as companies of such local and international companies registered with ACRA that are based overseas.
-The MOE subsidy is not eligible to applicants without service obligation.
-Read more about the Service Obligation scheme.
-What Do Miscellaneous Fees Cover?
-Miscellaneous fees are typically levied on items that are either not covered or partially covered by tuition fee and grant/subsidy. All students, whether registered on a full-time or part-time basis, are charged the mandatory miscellaneous fees. These are due at the same time as the tuition fees. These fees help defray the costs of student activity, health services and insurance, campus shuttle service and other services.
- Any queries about fees and payment, please contact us at issfinance@nus.edu.sg.
-Loans and Subsidies
-Students who require financing for their tuition fees may apply for the following:
-Tuition Fee Loan
-SkillsFuture Mid-Career Enhancement Subsidy
-SkillsFuture Credit
-Read up more on the above loans and subsidies
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -416,40 +381,6 @@
 Digital Governance</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Fees &amp; Loans 
- Singaporeans and Singapore Permanent Residents
-Full Time
-Subtotal (per semester)
-S$20,500.95
-$20,250.00 - Semester Tuition Fee
-$250.95  - Semester Miscellaneous Fee
-Part Time
-Subtotal (per semester) S$10,257.90 
-$10,125.00 - Semester Tuition Fee
-$132.90    - Semester Miscellaneous Fee
- International Students
-Full Time
-Subtotal (per semester) S$22,750.95 
-$22,500.00 - Semester Tuition Fee
-$250.95    - Semester Miscellaneous Fee
-Part Time
-Subtotal (per semester) S$11,382.90 
-$11,250.00 - Semester Tuition Fee
-$132.90    - Semester Miscellaneous Fee
-The fees above are for the Academic Year 2018 / 2019.
-Fees are correct at time of posting and are subjected to changes without prior notice. The University reserves the right to alter the fees at any time. Fees for subsequent years are under review.
-What Do Miscellaneous Fees Cover?
-Miscellaneous fees are typically levied on items that are either not covered or partially covered by tuition fee and grant/subsidy. All students, whether registered on a full-time or part-time basis, are charged the mandatory miscellaneous fees. These are due at the same time as the tuition fees. These fees help defray the costs of student activity, health services and insurance, campus shuttle service and other services.
- Any queries about fees and payment, please contact us at issfinance@nus.edu.sg.
-Loans and Subsidies
-Students who require financing for their tuition fees may apply for the following:
-NUS-ISS Student Assistance Loan Scheme
-SkillsFuture Credit
-Read up more on the above loans and subsidies
-</t>
-  </si>
-  <si>
     <t>Stackable Certificate Programme in Data Science</t>
   </si>
   <si>
@@ -9506,6 +9437,555 @@
 64 GB storage 1280x1024 minimum screen resolution
 Windows 10 or Later/Mac OSX 10.10 or Later (64-Bit OS Required)</t>
   </si>
+  <si>
+    <t>For Foreigners: S$55,319.00 to S$59,171.00
+For Singaporeans/PRs: S$20,939.90 to S$22,095.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fees &amp; Loans  
+ Singaporeans
+Subtotal
+S$10,013.29  
+$9,500.00 - Annual Tuition Fee
+$513.29 - Miscellaneous Fees
+ Singapore Permanent Residents
+Subtotal
+S$15,663.29
+$15,150.00 - Annual Tuition Fee
+$513.29 - Miscellaneous Fees
+ International Students with Service Obligation (only applicable till August 2019 intake)
+Subtotal
+S$23,563.29  
+$23,050.00 - Annual Tuition Fee
+$513.29  - Miscellaneous Fees
+ International Students without Service Obligation
+Subtotal
+S$37,463.29
+$36,950.00 - Annual Tuition Fee
+$513.29  - Miscellaneous Fees
+The fees above are the Academic Year 2018 / 2019 (GDipSA Intakes 47 &amp; 48). 
+Fees are correct at time of posting and are subjected to changes without prior notice. The University reserves the right to alter the fees at any time. Fees for subsequent years are under review.
+The Ministry of Education (MOE) of Singapore offers a tuition subsidy, known as the MOE subsidy. This subsidy will be administered automatically to eligible applicants. Read more about the eligibility guidelines.
+For Singapore Citizens and Singapore Permanent Resident students, the fees quoted are subsidised by the Singapore government, through MOE, and are exclusive of GST. The applicable GST will be subsidised by the MOE as well.
+What is Service Obligation?
+The Service Obligation scheme is only applicable to international students.
+The service obligation will require you to work in Singapore-based companies for 3 years upon graduation. Singapore-based companies refer to local and international companies that have a base in Singapore that is registered with the Accounting &amp; Corporate Regulatory Authority (ACRA) as well as companies of such local and international companies registered with ACRA that are based overseas.
+The MOE subsidy is not eligible to applicants without service obligation.
+Read more about the Service Obligation scheme.
+What Do Miscellaneous Fees Cover?
+Miscellaneous fees are typically levied on items that are either not covered or partially covered by tuition fee and grant/subsidy. All students, whether registered on a full-time or part-time basis, are charged the mandatory miscellaneous fees. These are due at the same time as the tuition fees. These fees help defray the costs of student activity, health services and insurance, campus shuttle service and other services.
+ Any queries about fees and payment, please contact us at issfinance@nus.edu.sg.
+Loans and Subsidies
+Students who require financing for their tuition fees may apply for the following:
+Tuition Fee Loan
+SkillsFuture Mid-Career Enhancement Subsidy
+SkillsFuture Credit
+Read up more on the above loans and subsidies
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fees &amp; Loans 
+ Singaporeans and Singapore Permanent Residents
+Full Time
+Subtotal (per semester)
+S$20,500.95
+$20,250.00 - Semester Tuition Fee
+$250.95  - Semester Miscellaneous Fee
+Part Time
+Subtotal (per semester) S$10,257.90 
+$10,125.00 - Semester Tuition Fee
+$132.90    - Semester Miscellaneous Fee
+ International Students
+Full Time
+Subtotal (per semester) S$22,750.95 
+$22,500.00 - Semester Tuition Fee
+$250.95    - Semester Miscellaneous Fee
+Part Time
+Subtotal (per semester) S$11,382.90 
+$11,250.00 - Semester Tuition Fee
+$132.90    - Semester Miscellaneous Fee
+The fees above are for the Academic Year 2018 / 2019.
+Fees are correct at time of posting and are subjected to changes without prior notice. The University reserves the right to alter the fees at any time. Fees for subsequent years are under review.
+What Do Miscellaneous Fees Cover?
+Miscellaneous fees are typically levied on items that are either not covered or partially covered by tuition fee and grant/subsidy. All students, whether registered on a full-time or part-time basis, are charged the mandatory miscellaneous fees. These are due at the same time as the tuition fees. These fees help defray the costs of student activity, health services and insurance, campus shuttle service and other services.
+ Any queries about fees and payment, please contact us at issfinance@nus.edu.sg.
+Loans and Subsidies
+Students who require financing for their tuition fees may apply for the following:
+NUS-ISS Student Assistance Loan Scheme
+SkillsFuture Credit
+Read up more on the above loans and subsidies
+</t>
+  </si>
+  <si>
+    <t>For Foreigners: S$45,956.50 or S$46,759.00
+For Singaporeans/PRs: S$17,981.35 or S$18,222.10</t>
+  </si>
+  <si>
+    <t>For Foreigners: S$52,023.40 to S$56,774.20
+For Singaporeans/PRs: S$19,951.22 to S$21,376.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Foreigners: S$37,463.29
+For PRs: S$15,663.29
+For Singaporeans: S$10,013.29 </t>
+  </si>
+  <si>
+    <t>For Foreigners: S$22,750.95 
+For Singaporeans/PRs: S$20,500.95</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/robotic-systems/artificial-intelligence</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/vision-systems/artificial-intelligence</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/new-media-and-sentiment-mining-new/artificial-intelligence</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/text-processing-using-machine-learning/artificial-intelligence</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/machine-reasoning/artificial-intelligence</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/intelligent-sensing-and-sense-making/artificial-intelligence</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/problem-solving-using-pattern-recognition/artificial-intelligence</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/pattern-recognition-and-machine-learning-systems/artificial-intelligence</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--text-analytics-(sf)/artificial-intelligence</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/reasoning-systems/artificial-intelligence</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/spatial-reasoning-from-sensor-data/artificial-intelligence</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/certified-information-systems-security-professional--(cissp-exam-only)/cybersecurity</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/certified-secure-software-lifecycle-professional-(csslp-exam-only)-/cybersecurity</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/certified-cloud-security-professional-(ccsp-exam-only)/cybersecurity</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--securing-iot-(sf)/cybersecurity</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--design-secure-mobile-architecture-(sf)/cybersecurity</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--design-secure-mobile-architecture-ssdla-sf/cybersecurity</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--aisp-qualified-information-security-professional-course-(sf)/cybersecurity</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--(isc)-ccsp-cbk-training-seminar-(sf)/cybersecurity</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--(isc)-cissp-cbk-training-seminar-(sf)/cybersecurity</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--cybersecurity-risk-awareness-(sf)/cybersecurity</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--managing-cybersecurity-risk-(sf)/cybersecurity</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--cyber-security-for-ict-professionals-(sf)/cybersecurity</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--(isc)-csslp-cbk-training-seminar-(sf)/cybersecurity</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--data-analytics-process-and-best-practice-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--recommender-systems-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/new-media-and-sentiment-mining-new/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/text-processing-using-machine-learning/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--health-analytics_(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--advanced-customer-analytics-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--big-data-engineering-for-analytics-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--customer-analytics-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--web-analytics-seo-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--data-storytelling-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--managing-business-analytics-projects-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--predictive-analytics---insights-of-trends-and-irregularities-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--statistics-bootcamp-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--statistics-for-business-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--social-media-analytics-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf-service-analytics-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--text-analytics-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--data-driven-decision-making-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--data-governance-protection-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--feature-engineering-and-analytics-using-iot-data-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf-campaign-analytics-(sf)/data-science</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/certified-scrum-product-owner-/digital-agility</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf-business-agility-bootcamp/digital-agility</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--agile-testing-(sf)/digital-agility</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--certified-less-practitioner---principles-to-practices-(sf)/digital-agility</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--essential-practices-for-agile-teams-(sf)/digital-agility</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf---lean-it-foundation-certification-(sf)/digital-agility</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--certified-scrummaster-(sf)/digital-agility</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--devops-foundation-with-bizops-(sf)/digital-agility</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/-nicf--itilâ-continual-service-improvement-certificate-(sf)/digital-agility</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--itil-operational-support-and-analysis-certificate-(sf)/digital-agility</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--itil-release-control-and-validation-certificate-(sf)/digital-agility</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--itil-service-offerings-and-agreements-certificate-(sf)/digital-agility</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--pmi-agile-certified-practitioner-(pmi-acp)-preparatory-course-acp-sf/digital-agility</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--systems-thinking-root-cause-analysis-(sf)/digital-agility</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--business-analysis-for-agile-practitioners-(sf)/digital-agility</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--itil-foundation-certificate-in-it-service-management-(sf)/digital-agility</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--digital-social-engagement-strategy-(sf)/digital-innovation-design</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--innovation-bootcamp-(sf)/digital-innovation-design</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--mobile-user-experience-design-(sf)/digital-innovation-design</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--strategic-design-innovation-(sf)/digital-innovation-design</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--service-design-(sf)/digital-innovation-design</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--technopreneurship-(sf)/digital-innovation-design</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--digital-user-experience-design-(sf)/digital-innovation-design</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--web-analytics-seo-(sf)/digital-innovation-design</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--social-media-analytics-(sf)/digital-innovation-design</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/certified-scrum-product-owner-/digital-products-platforms</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/project-management-professional--(pmp-exam-only)/digital-products-platforms</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/pmi-agile-certified-practitioner--(pmi-acp-exam-only)/digital-products-platforms</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--pmp-for-project-managers-(sf)/digital-products-platforms</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--certified-scrummaster-(sf)/digital-products-platforms</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--digital-product-strategy-(sf)/digital-products-platforms</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--managing-business-analytics-projects-(sf)/digital-products-platforms</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--pmi-agile-certified-practitioner-(pmi-acp)-preparatory-course-acp-sf/digital-products-platforms</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--prince2-(projects-in-controlled-environments)---foundation-and-practitioner-certificate-(sf)/digital-products-platforms</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--product-thinking-for-organisations-(sf)/digital-products-platforms</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--strategic-product-market-fit-(sf)/digital-products-platforms</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--strategic-product-manager-(sf)/digital-products-platforms</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--communicating-and-managing-change-(sf)/digital-products-platforms</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/certified-scrum-product-owner-/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/certified-information-systems-security-professional--(cissp-exam-only)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/certified-secure-software-lifecycle-professional-(csslp-exam-only)-/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/certified-business-analysis-professional-(cbap)-preparatory-course/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf-specialist-diploma-in-enterprise-architecture/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/e-government/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/certified-cloud-security-professional-(ccsp-exam-only)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf-business-agility-bootcamp/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--securing-iot-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--design-secure-mobile-architecture-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--innovation-bootcamp-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--design-secure-mobile-architecture-ssdla-sf/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--data-driven-decision-making-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--cobit-5-foundation-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--aisp-qualified-information-security-professional-course-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--business-analysis-for-agile-practitioners-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--business-process-reengineering-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--(isc)-ccsp-cbk-training-seminar-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--certified-enterprise-architecture-practitioner-course-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--(isc)-cissp-cbk-training-seminar-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--communicating-and-managing-change-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--cybersecurity-risk-awareness-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--managing-cybersecurity-risk-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--cyber-security-for-ict-professionals-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--(isc)-csslp-cbk-training-seminar-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--data-governance-protection-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--enterprise-architecture-masterclass-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf---enterprise-architecture-practicum---aop-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--enterprise-architecture-practicum-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--strategic-business-analysis-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--enterprise-digital-governance-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--strategic-futures-foresight-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--digital-transformation-planning-(sf)/digital-strategy-leadership</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nus-iss-certificate-in-digital-solutions-development/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nus-graduate-diploma-in-systems-analysis-capstone-internship/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--securing-iot-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf---cloud-native-solution-design-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/platform-engineering-SF/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/humanizing-smart-systems-SF/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/devops-engineering-and-automation-SF/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/designing-intelligent-edge-computing-SF/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--architecting-software-solutions-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--agile-testing-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--introduction-to-blockchain-dlt-for-executives-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--designing-cloud-enabled-mobile-applications-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--design-secure-mobile-architecture-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--essential-practices-for-agile-teams-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--envisioning-smart-urban-iot-solutions-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--object-oriented-analysis-design-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nus-graduate-diploma-in-systems-analysis-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nus-iss-certificate-in-digital-solutions-development-design-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--big-data-engineering-for-analytics-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nus-iss-certificate-in-digital-solutions-development-foundations-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nus-iss-certificate-in-digital-solutions-development-web-applications-sa4105-sf/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--service-design-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--developing-smart-urban-iot-solutions-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--design-secure-mobile-architecture-ssdla-sf/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--digital-product-strategy-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--strategic-product-manager-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--architecting-iot-solutions-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--object-oriented-design-patterns-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--(isc)-cissp-cbk-training-seminar-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nus-iss-certificate-in-digital-solutions-development---mobility-applications-(sf)/software-systems</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--containers-for-deploying-and-scaling-apps-(sf)/stackup---startup-tech-talent-development</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--sequence-modeling-with-deep-learning-(sf)/stackup---startup-tech-talent-development</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--feature-extraction-and-supervised-modeling-with-deep-learning-(sf)/stackup---startup-tech-talent-development</t>
+  </si>
+  <si>
+    <t>https://www.iss.nus.edu.sg/executive-education/course/detail/nicf--supervised-and-unsupervised-modeling-with-machine-learning-(sf)/stackup---startup-tech-talent-development</t>
+  </si>
 </sst>
 </file>
 
@@ -9550,7 +10030,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -9580,11 +10060,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -9593,6 +10084,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9924,17 +10422,17 @@
     </row>
     <row r="2" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10944,12 +11442,14 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10991,132 +11491,153 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
       <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="F7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
       <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12159,106 +12680,106 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -12307,288 +12828,288 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -12598,16 +13119,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12615,7 +13138,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -12627,2694 +13150,3147 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" t="s">
+        <v>203</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" t="s">
+        <v>210</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" t="s">
+        <v>228</v>
+      </c>
+      <c r="G19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" t="s">
+        <v>233</v>
+      </c>
+      <c r="G20" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" t="s">
+        <v>241</v>
+      </c>
+      <c r="G21" t="s">
+        <v>242</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" t="s">
+        <v>249</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" t="s">
+        <v>256</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B25" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" t="s">
+        <v>265</v>
+      </c>
+      <c r="G25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" t="s">
+        <v>272</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" t="s">
+        <v>277</v>
+      </c>
+      <c r="G27" t="s">
+        <v>278</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B28" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" t="s">
+        <v>288</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>298</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" t="s">
+        <v>304</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>306</v>
+      </c>
+      <c r="B32" t="s">
+        <v>307</v>
+      </c>
+      <c r="C32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>314</v>
+      </c>
+      <c r="G32" t="s">
+        <v>315</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>317</v>
+      </c>
+      <c r="B33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>324</v>
+      </c>
+      <c r="G33" t="s">
+        <v>326</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>327</v>
+      </c>
+      <c r="B34" t="s">
+        <v>328</v>
+      </c>
+      <c r="C34" t="s">
+        <v>329</v>
+      </c>
+      <c r="D34" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" t="s">
+        <v>336</v>
+      </c>
+      <c r="G34" t="s">
+        <v>337</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B35" t="s">
+        <v>340</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" t="s">
+        <v>342</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>343</v>
+      </c>
+      <c r="B36" t="s">
+        <v>345</v>
+      </c>
+      <c r="C36" t="s">
+        <v>346</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" t="s">
+        <v>352</v>
+      </c>
+      <c r="G36" t="s">
+        <v>353</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>354</v>
+      </c>
+      <c r="B37" t="s">
+        <v>355</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>360</v>
+      </c>
+      <c r="F37" t="s">
+        <v>362</v>
+      </c>
+      <c r="G37" t="s">
+        <v>363</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>364</v>
+      </c>
+      <c r="B38" t="s">
+        <v>365</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" t="s">
+        <v>367</v>
+      </c>
+      <c r="F38" t="s">
+        <v>369</v>
+      </c>
+      <c r="G38" t="s">
+        <v>371</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>372</v>
+      </c>
+      <c r="B39" t="s">
+        <v>373</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" t="s">
+        <v>380</v>
+      </c>
+      <c r="G39" t="s">
+        <v>381</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>382</v>
+      </c>
+      <c r="B40" t="s">
+        <v>383</v>
+      </c>
+      <c r="C40" t="s">
+        <v>329</v>
+      </c>
+      <c r="D40" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" t="s">
+        <v>391</v>
+      </c>
+      <c r="G40" t="s">
+        <v>392</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>394</v>
+      </c>
+      <c r="B41" t="s">
+        <v>395</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" t="s">
+        <v>402</v>
+      </c>
+      <c r="G41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>405</v>
+      </c>
+      <c r="B42" t="s">
+        <v>406</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>410</v>
+      </c>
+      <c r="B43" t="s">
+        <v>411</v>
+      </c>
+      <c r="C43" t="s">
+        <v>413</v>
+      </c>
+      <c r="D43" t="s">
+        <v>415</v>
+      </c>
+      <c r="G43" t="s">
+        <v>416</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>417</v>
+      </c>
+      <c r="B44" t="s">
+        <v>418</v>
+      </c>
+      <c r="C44" t="s">
+        <v>413</v>
+      </c>
+      <c r="D44" t="s">
+        <v>419</v>
+      </c>
+      <c r="F44" t="s">
+        <v>420</v>
+      </c>
+      <c r="G44" t="s">
+        <v>421</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>422</v>
+      </c>
+      <c r="B45" t="s">
+        <v>423</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" t="s">
+        <v>424</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>425</v>
+      </c>
+      <c r="B46" t="s">
+        <v>426</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" t="s">
+        <v>427</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>428</v>
+      </c>
+      <c r="B47" t="s">
+        <v>429</v>
+      </c>
+      <c r="C47" t="s">
+        <v>430</v>
+      </c>
+      <c r="G47" t="s">
+        <v>431</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>432</v>
+      </c>
+      <c r="B48" t="s">
+        <v>433</v>
+      </c>
+      <c r="C48" t="s">
+        <v>434</v>
+      </c>
+      <c r="D48" t="s">
+        <v>435</v>
+      </c>
+      <c r="G48" t="s">
+        <v>436</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>437</v>
+      </c>
+      <c r="B49" t="s">
+        <v>438</v>
+      </c>
+      <c r="C49" t="s">
+        <v>439</v>
+      </c>
+      <c r="D49" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" t="s">
+        <v>440</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>441</v>
+      </c>
+      <c r="B50" t="s">
+        <v>442</v>
+      </c>
+      <c r="C50" t="s">
         <v>78</v>
       </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D50" t="s">
+        <v>443</v>
+      </c>
+      <c r="F50" t="s">
+        <v>444</v>
+      </c>
+      <c r="G50" t="s">
+        <v>445</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>446</v>
+      </c>
+      <c r="B51" t="s">
+        <v>447</v>
+      </c>
+      <c r="C51" t="s">
+        <v>439</v>
+      </c>
+      <c r="D51" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" t="s">
+        <v>448</v>
+      </c>
+      <c r="G51" t="s">
+        <v>449</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>450</v>
+      </c>
+      <c r="B52" t="s">
+        <v>451</v>
+      </c>
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" t="s">
+        <v>452</v>
+      </c>
+      <c r="G52" t="s">
+        <v>453</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>454</v>
+      </c>
+      <c r="B53" t="s">
+        <v>455</v>
+      </c>
+      <c r="C53" t="s">
+        <v>456</v>
+      </c>
+      <c r="D53" t="s">
+        <v>457</v>
+      </c>
+      <c r="G53" t="s">
+        <v>431</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>458</v>
+      </c>
+      <c r="B54" t="s">
+        <v>459</v>
+      </c>
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" t="s">
+        <v>460</v>
+      </c>
+      <c r="G54" t="s">
+        <v>461</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>462</v>
+      </c>
+      <c r="B55" t="s">
+        <v>463</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s">
+        <v>464</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>465</v>
+      </c>
+      <c r="B56" t="s">
+        <v>466</v>
+      </c>
+      <c r="C56" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s">
+        <v>467</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>468</v>
+      </c>
+      <c r="B57" t="s">
+        <v>469</v>
+      </c>
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s">
+        <v>464</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>470</v>
+      </c>
+      <c r="B58" t="s">
+        <v>471</v>
+      </c>
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s">
+        <v>464</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>472</v>
+      </c>
+      <c r="B59" t="s">
+        <v>473</v>
+      </c>
+      <c r="C59" t="s">
+        <v>456</v>
+      </c>
+      <c r="G59" t="s">
+        <v>474</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>475</v>
+      </c>
+      <c r="B60" t="s">
+        <v>476</v>
+      </c>
+      <c r="C60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" t="s">
+        <v>435</v>
+      </c>
+      <c r="G60" t="s">
+        <v>477</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>478</v>
+      </c>
+      <c r="B61" t="s">
+        <v>479</v>
+      </c>
+      <c r="C61" t="s">
+        <v>434</v>
+      </c>
+      <c r="D61" t="s">
+        <v>435</v>
+      </c>
+      <c r="G61" t="s">
+        <v>480</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>481</v>
+      </c>
+      <c r="B62" t="s">
+        <v>482</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" t="s">
+        <v>464</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>483</v>
+      </c>
+      <c r="B63" t="s">
+        <v>484</v>
+      </c>
+      <c r="C63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" t="s">
+        <v>218</v>
+      </c>
+      <c r="F63" t="s">
+        <v>485</v>
+      </c>
+      <c r="G63" t="s">
+        <v>486</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>487</v>
+      </c>
+      <c r="B64" t="s">
+        <v>488</v>
+      </c>
+      <c r="C64" t="s">
+        <v>489</v>
+      </c>
+      <c r="D64" t="s">
+        <v>490</v>
+      </c>
+      <c r="G64" t="s">
+        <v>491</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>492</v>
+      </c>
+      <c r="B65" t="s">
+        <v>493</v>
+      </c>
+      <c r="C65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" t="s">
+        <v>218</v>
+      </c>
+      <c r="G65" t="s">
+        <v>494</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>495</v>
+      </c>
+      <c r="B66" t="s">
+        <v>496</v>
+      </c>
+      <c r="C66" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" t="s">
+        <v>497</v>
+      </c>
+      <c r="G66" t="s">
+        <v>498</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>499</v>
+      </c>
+      <c r="B67" t="s">
+        <v>500</v>
+      </c>
+      <c r="C67" t="s">
+        <v>501</v>
+      </c>
+      <c r="D67" t="s">
+        <v>502</v>
+      </c>
+      <c r="G67" t="s">
+        <v>503</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>504</v>
+      </c>
+      <c r="B68" t="s">
+        <v>505</v>
+      </c>
+      <c r="C68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" t="s">
+        <v>506</v>
+      </c>
+      <c r="G68" t="s">
+        <v>498</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>507</v>
+      </c>
+      <c r="B69" t="s">
+        <v>508</v>
+      </c>
+      <c r="C69" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" t="s">
+        <v>218</v>
+      </c>
+      <c r="G69" t="s">
+        <v>509</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>510</v>
+      </c>
+      <c r="B70" t="s">
+        <v>511</v>
+      </c>
+      <c r="C70" t="s">
+        <v>329</v>
+      </c>
+      <c r="D70" t="s">
+        <v>218</v>
+      </c>
+      <c r="F70" t="s">
+        <v>336</v>
+      </c>
+      <c r="G70" t="s">
+        <v>337</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>512</v>
+      </c>
+      <c r="B71" t="s">
+        <v>513</v>
+      </c>
+      <c r="C71" t="s">
+        <v>329</v>
+      </c>
+      <c r="D71" t="s">
+        <v>218</v>
+      </c>
+      <c r="F71" t="s">
+        <v>391</v>
+      </c>
+      <c r="G71" t="s">
+        <v>392</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>514</v>
+      </c>
+      <c r="B72" t="s">
+        <v>515</v>
+      </c>
+      <c r="C72" t="s">
+        <v>430</v>
+      </c>
+      <c r="G72" t="s">
+        <v>431</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>516</v>
+      </c>
+      <c r="B73" t="s">
+        <v>517</v>
+      </c>
+      <c r="C73" t="s">
+        <v>518</v>
+      </c>
+      <c r="D73" t="s">
+        <v>519</v>
+      </c>
+      <c r="G73" t="s">
+        <v>520</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>521</v>
+      </c>
+      <c r="B74" t="s">
+        <v>522</v>
+      </c>
+      <c r="C74" t="s">
+        <v>518</v>
+      </c>
+      <c r="D74" t="s">
+        <v>523</v>
+      </c>
+      <c r="G74" t="s">
+        <v>524</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>525</v>
+      </c>
+      <c r="B75" t="s">
+        <v>526</v>
+      </c>
+      <c r="C75" t="s">
+        <v>518</v>
+      </c>
+      <c r="F75" t="s">
+        <v>527</v>
+      </c>
+      <c r="G75" t="s">
+        <v>528</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>529</v>
+      </c>
+      <c r="B76" t="s">
+        <v>530</v>
+      </c>
+      <c r="C76" t="s">
+        <v>456</v>
+      </c>
+      <c r="D76" t="s">
+        <v>457</v>
+      </c>
+      <c r="G76" t="s">
+        <v>431</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>531</v>
+      </c>
+      <c r="B77" t="s">
+        <v>532</v>
+      </c>
+      <c r="C77" t="s">
+        <v>533</v>
+      </c>
+      <c r="D77" t="s">
+        <v>534</v>
+      </c>
+      <c r="F77" t="s">
+        <v>535</v>
+      </c>
+      <c r="G77" t="s">
+        <v>536</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>537</v>
+      </c>
+      <c r="B78" t="s">
+        <v>538</v>
+      </c>
+      <c r="C78" t="s">
+        <v>346</v>
+      </c>
+      <c r="D78" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78" t="s">
+        <v>352</v>
+      </c>
+      <c r="G78" t="s">
+        <v>353</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>539</v>
+      </c>
+      <c r="B79" t="s">
+        <v>540</v>
+      </c>
+      <c r="C79" t="s">
+        <v>456</v>
+      </c>
+      <c r="G79" t="s">
+        <v>474</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>541</v>
+      </c>
+      <c r="B80" t="s">
+        <v>542</v>
+      </c>
+      <c r="C80" t="s">
+        <v>518</v>
+      </c>
+      <c r="G80" t="s">
+        <v>543</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>544</v>
+      </c>
+      <c r="B81" t="s">
+        <v>545</v>
+      </c>
+      <c r="C81" t="s">
+        <v>518</v>
+      </c>
+      <c r="D81" t="s">
+        <v>435</v>
+      </c>
+      <c r="F81" t="s">
+        <v>546</v>
+      </c>
+      <c r="G81" t="s">
+        <v>547</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>548</v>
+      </c>
+      <c r="B82" t="s">
+        <v>549</v>
+      </c>
+      <c r="C82" t="s">
+        <v>518</v>
+      </c>
+      <c r="D82" t="s">
+        <v>153</v>
+      </c>
+      <c r="F82" t="s">
+        <v>550</v>
+      </c>
+      <c r="G82" t="s">
+        <v>551</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>552</v>
+      </c>
+      <c r="B83" t="s">
+        <v>553</v>
+      </c>
+      <c r="C83" t="s">
+        <v>533</v>
+      </c>
+      <c r="D83" t="s">
+        <v>142</v>
+      </c>
+      <c r="G83" t="s">
+        <v>554</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>555</v>
+      </c>
+      <c r="B84" t="s">
+        <v>556</v>
+      </c>
+      <c r="C84" t="s">
+        <v>557</v>
+      </c>
+      <c r="G84" t="s">
+        <v>558</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>559</v>
+      </c>
+      <c r="B85" t="s">
+        <v>560</v>
+      </c>
+      <c r="C85" t="s">
+        <v>430</v>
+      </c>
+      <c r="G85" t="s">
+        <v>431</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>561</v>
+      </c>
+      <c r="B86" t="s">
+        <v>562</v>
+      </c>
+      <c r="C86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" t="s">
+        <v>179</v>
+      </c>
+      <c r="G86" t="s">
+        <v>180</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>563</v>
+      </c>
+      <c r="B87" t="s">
+        <v>564</v>
+      </c>
+      <c r="C87" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" t="s">
+        <v>186</v>
+      </c>
+      <c r="G87" t="s">
+        <v>180</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>565</v>
+      </c>
+      <c r="B88" t="s">
+        <v>566</v>
+      </c>
+      <c r="C88" t="s">
         <v>93</v>
       </c>
-      <c r="G3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="G88" t="s">
+        <v>567</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>568</v>
+      </c>
+      <c r="B89" t="s">
+        <v>569</v>
+      </c>
+      <c r="C89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" t="s">
+        <v>570</v>
+      </c>
+      <c r="F89" t="s">
+        <v>571</v>
+      </c>
+      <c r="G89" t="s">
+        <v>572</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>573</v>
+      </c>
+      <c r="B90" t="s">
+        <v>574</v>
+      </c>
+      <c r="C90" t="s">
+        <v>93</v>
+      </c>
+      <c r="G90" t="s">
+        <v>575</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>576</v>
+      </c>
+      <c r="B91" t="s">
+        <v>577</v>
+      </c>
+      <c r="C91" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" t="s">
+        <v>192</v>
+      </c>
+      <c r="G91" t="s">
+        <v>180</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>578</v>
+      </c>
+      <c r="B92" t="s">
+        <v>579</v>
+      </c>
+      <c r="C92" t="s">
+        <v>434</v>
+      </c>
+      <c r="D92" t="s">
+        <v>435</v>
+      </c>
+      <c r="G92" t="s">
+        <v>436</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>580</v>
+      </c>
+      <c r="B93" t="s">
+        <v>581</v>
+      </c>
+      <c r="C93" t="s">
+        <v>196</v>
+      </c>
+      <c r="D93" t="s">
+        <v>201</v>
+      </c>
+      <c r="F93" t="s">
+        <v>202</v>
+      </c>
+      <c r="G93" t="s">
+        <v>203</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>582</v>
+      </c>
+      <c r="B94" t="s">
+        <v>583</v>
+      </c>
+      <c r="C94" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" t="s">
+        <v>208</v>
+      </c>
+      <c r="F94" t="s">
+        <v>209</v>
+      </c>
+      <c r="G94" t="s">
+        <v>210</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>584</v>
+      </c>
+      <c r="B95" t="s">
+        <v>585</v>
+      </c>
+      <c r="C95" t="s">
+        <v>489</v>
+      </c>
+      <c r="D95" t="s">
+        <v>490</v>
+      </c>
+      <c r="G95" t="s">
+        <v>491</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>586</v>
+      </c>
+      <c r="B96" t="s">
+        <v>587</v>
+      </c>
+      <c r="C96" t="s">
+        <v>196</v>
+      </c>
+      <c r="D96" t="s">
+        <v>218</v>
+      </c>
+      <c r="F96" t="s">
+        <v>219</v>
+      </c>
+      <c r="G96" t="s">
+        <v>220</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>588</v>
+      </c>
+      <c r="B97" t="s">
+        <v>589</v>
+      </c>
+      <c r="C97" t="s">
+        <v>413</v>
+      </c>
+      <c r="D97" t="s">
+        <v>415</v>
+      </c>
+      <c r="G97" t="s">
+        <v>416</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>590</v>
+      </c>
+      <c r="B98" t="s">
+        <v>591</v>
+      </c>
+      <c r="C98" t="s">
+        <v>93</v>
+      </c>
+      <c r="G98" t="s">
+        <v>543</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>592</v>
+      </c>
+      <c r="B99" t="s">
+        <v>593</v>
+      </c>
+      <c r="C99" t="s">
+        <v>175</v>
+      </c>
+      <c r="D99" t="s">
+        <v>228</v>
+      </c>
+      <c r="G99" t="s">
+        <v>229</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>594</v>
+      </c>
+      <c r="B100" t="s">
+        <v>595</v>
+      </c>
+      <c r="C100" t="s">
+        <v>434</v>
+      </c>
+      <c r="D100" t="s">
+        <v>435</v>
+      </c>
+      <c r="G100" t="s">
+        <v>480</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>596</v>
+      </c>
+      <c r="B101" t="s">
+        <v>597</v>
+      </c>
+      <c r="C101" t="s">
+        <v>93</v>
+      </c>
+      <c r="D101" t="s">
+        <v>598</v>
+      </c>
+      <c r="G101" t="s">
+        <v>599</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>600</v>
+      </c>
+      <c r="B102" t="s">
+        <v>601</v>
+      </c>
+      <c r="C102" t="s">
+        <v>175</v>
+      </c>
+      <c r="D102" t="s">
+        <v>232</v>
+      </c>
+      <c r="F102" t="s">
+        <v>233</v>
+      </c>
+      <c r="G102" t="s">
+        <v>234</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>602</v>
+      </c>
+      <c r="B103" t="s">
+        <v>603</v>
+      </c>
+      <c r="C103" t="s">
+        <v>93</v>
+      </c>
+      <c r="D103" t="s">
+        <v>604</v>
+      </c>
+      <c r="F103" t="s">
+        <v>605</v>
+      </c>
+      <c r="G103" t="s">
+        <v>606</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>607</v>
+      </c>
+      <c r="B104" t="s">
+        <v>608</v>
+      </c>
+      <c r="C104" t="s">
+        <v>196</v>
+      </c>
+      <c r="D104" t="s">
+        <v>240</v>
+      </c>
+      <c r="F104" t="s">
+        <v>241</v>
+      </c>
+      <c r="G104" t="s">
+        <v>242</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>609</v>
+      </c>
+      <c r="B105" t="s">
+        <v>610</v>
+      </c>
+      <c r="C105" t="s">
+        <v>557</v>
+      </c>
+      <c r="G105" t="s">
+        <v>558</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>611</v>
+      </c>
+      <c r="B106" t="s">
+        <v>612</v>
+      </c>
+      <c r="C106" t="s">
+        <v>175</v>
+      </c>
+      <c r="D106" t="s">
+        <v>248</v>
+      </c>
+      <c r="G106" t="s">
+        <v>249</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>613</v>
+      </c>
+      <c r="B107" t="s">
+        <v>614</v>
+      </c>
+      <c r="C107" t="s">
+        <v>175</v>
+      </c>
+      <c r="D107" t="s">
+        <v>153</v>
+      </c>
+      <c r="G107" t="s">
+        <v>256</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>615</v>
+      </c>
+      <c r="B108" t="s">
+        <v>616</v>
+      </c>
+      <c r="C108" t="s">
+        <v>175</v>
+      </c>
+      <c r="D108" t="s">
+        <v>153</v>
+      </c>
+      <c r="G108" t="s">
+        <v>180</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>617</v>
+      </c>
+      <c r="B109" t="s">
+        <v>618</v>
+      </c>
+      <c r="C109" t="s">
+        <v>261</v>
+      </c>
+      <c r="D109" t="s">
+        <v>240</v>
+      </c>
+      <c r="F109" t="s">
+        <v>265</v>
+      </c>
+      <c r="G109" t="s">
+        <v>266</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>619</v>
+      </c>
+      <c r="B110" t="s">
+        <v>620</v>
+      </c>
+      <c r="C110" t="s">
+        <v>413</v>
+      </c>
+      <c r="D110" t="s">
+        <v>419</v>
+      </c>
+      <c r="F110" t="s">
+        <v>420</v>
+      </c>
+      <c r="G110" t="s">
+        <v>421</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>621</v>
+      </c>
+      <c r="B111" t="s">
+        <v>622</v>
+      </c>
+      <c r="C111" t="s">
+        <v>93</v>
+      </c>
+      <c r="D111" t="s">
+        <v>435</v>
+      </c>
+      <c r="G111" t="s">
+        <v>623</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>624</v>
+      </c>
+      <c r="B112" t="s">
+        <v>625</v>
+      </c>
+      <c r="C112" t="s">
+        <v>93</v>
+      </c>
+      <c r="D112" t="s">
+        <v>626</v>
+      </c>
+      <c r="F112" t="s">
+        <v>627</v>
+      </c>
+      <c r="G112" t="s">
+        <v>572</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>628</v>
+      </c>
+      <c r="B113" t="s">
+        <v>629</v>
+      </c>
+      <c r="C113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D113" t="s">
+        <v>630</v>
+      </c>
+      <c r="F113" t="s">
+        <v>631</v>
+      </c>
+      <c r="G113" t="s">
+        <v>632</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>633</v>
+      </c>
+      <c r="B114" t="s">
+        <v>634</v>
+      </c>
+      <c r="C114" t="s">
+        <v>93</v>
+      </c>
+      <c r="D114" t="s">
+        <v>635</v>
+      </c>
+      <c r="G114" t="s">
+        <v>636</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>637</v>
+      </c>
+      <c r="B115" t="s">
+        <v>638</v>
+      </c>
+      <c r="C115" t="s">
+        <v>93</v>
+      </c>
+      <c r="D115" t="s">
+        <v>639</v>
+      </c>
+      <c r="G115" t="s">
+        <v>421</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>640</v>
+      </c>
+      <c r="B116" t="s">
+        <v>641</v>
+      </c>
+      <c r="C116" t="s">
+        <v>93</v>
+      </c>
+      <c r="G116" t="s">
+        <v>642</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>643</v>
+      </c>
+      <c r="B117" t="s">
+        <v>644</v>
+      </c>
+      <c r="C117" t="s">
+        <v>93</v>
+      </c>
+      <c r="D117" t="s">
+        <v>419</v>
+      </c>
+      <c r="G117" t="s">
+        <v>645</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>646</v>
+      </c>
+      <c r="B118" t="s">
+        <v>647</v>
+      </c>
+      <c r="C118" t="s">
         <v>130</v>
       </c>
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D118" t="s">
+        <v>648</v>
+      </c>
+      <c r="G118" t="s">
+        <v>649</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>650</v>
+      </c>
+      <c r="B119" t="s">
+        <v>651</v>
+      </c>
+      <c r="C119" t="s">
+        <v>130</v>
+      </c>
+      <c r="D119" t="s">
+        <v>652</v>
+      </c>
+      <c r="G119" t="s">
+        <v>653</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>654</v>
+      </c>
+      <c r="B120" t="s">
+        <v>655</v>
+      </c>
+      <c r="C120" t="s">
+        <v>196</v>
+      </c>
+      <c r="D120" t="s">
+        <v>201</v>
+      </c>
+      <c r="F120" t="s">
+        <v>202</v>
+      </c>
+      <c r="G120" t="s">
+        <v>203</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>656</v>
+      </c>
+      <c r="B121" t="s">
+        <v>657</v>
+      </c>
+      <c r="C121" t="s">
+        <v>130</v>
+      </c>
+      <c r="D121" t="s">
+        <v>658</v>
+      </c>
+      <c r="F121" t="s">
+        <v>659</v>
+      </c>
+      <c r="G121" t="s">
+        <v>660</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>661</v>
+      </c>
+      <c r="B122" t="s">
+        <v>662</v>
+      </c>
+      <c r="C122" t="s">
+        <v>130</v>
+      </c>
+      <c r="D122" t="s">
+        <v>663</v>
+      </c>
+      <c r="F122" t="s">
+        <v>664</v>
+      </c>
+      <c r="G122" t="s">
+        <v>665</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>666</v>
+      </c>
+      <c r="B123" t="s">
+        <v>667</v>
+      </c>
+      <c r="C123" t="s">
+        <v>130</v>
+      </c>
+      <c r="D123" t="s">
+        <v>142</v>
+      </c>
+      <c r="F123" t="s">
+        <v>668</v>
+      </c>
+      <c r="G123" t="s">
+        <v>669</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>670</v>
+      </c>
+      <c r="B124" t="s">
+        <v>671</v>
+      </c>
+      <c r="C124" t="s">
+        <v>130</v>
+      </c>
+      <c r="D124" t="s">
+        <v>672</v>
+      </c>
+      <c r="F124" t="s">
+        <v>673</v>
+      </c>
+      <c r="G124" t="s">
+        <v>674</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>675</v>
+      </c>
+      <c r="B125" t="s">
+        <v>676</v>
+      </c>
+      <c r="C125" t="s">
+        <v>130</v>
+      </c>
+      <c r="D125" t="s">
+        <v>142</v>
+      </c>
+      <c r="F125" t="s">
+        <v>677</v>
+      </c>
+      <c r="G125" t="s">
+        <v>678</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>679</v>
+      </c>
+      <c r="B126" t="s">
+        <v>680</v>
+      </c>
+      <c r="C126" t="s">
+        <v>130</v>
+      </c>
+      <c r="D126" t="s">
+        <v>75</v>
+      </c>
+      <c r="F126" t="s">
+        <v>681</v>
+      </c>
+      <c r="G126" t="s">
+        <v>682</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>683</v>
+      </c>
+      <c r="B127" t="s">
+        <v>684</v>
+      </c>
+      <c r="C127" t="s">
+        <v>439</v>
+      </c>
+      <c r="D127" t="s">
         <v>153</v>
       </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="G127" t="s">
+        <v>440</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>685</v>
+      </c>
+      <c r="B128" t="s">
+        <v>686</v>
+      </c>
+      <c r="C128" t="s">
+        <v>130</v>
+      </c>
+      <c r="D128" t="s">
+        <v>490</v>
+      </c>
+      <c r="G128" t="s">
+        <v>687</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>688</v>
+      </c>
+      <c r="B129" t="s">
+        <v>689</v>
+      </c>
+      <c r="C129" t="s">
+        <v>130</v>
+      </c>
+      <c r="D129" t="s">
+        <v>153</v>
+      </c>
+      <c r="G129" t="s">
+        <v>690</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>691</v>
+      </c>
+      <c r="B130" t="s">
+        <v>692</v>
+      </c>
+      <c r="C130" t="s">
         <v>196</v>
       </c>
-      <c r="B16" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F16" t="s">
-        <v>204</v>
-      </c>
-      <c r="G16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>206</v>
-      </c>
-      <c r="B17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D130" t="s">
+        <v>208</v>
+      </c>
+      <c r="F130" t="s">
+        <v>209</v>
+      </c>
+      <c r="G130" t="s">
         <v>210</v>
       </c>
-      <c r="F17" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="H130" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>693</v>
+      </c>
+      <c r="B131" t="s">
+        <v>694</v>
+      </c>
+      <c r="C131" t="s">
+        <v>439</v>
+      </c>
+      <c r="D131" t="s">
+        <v>153</v>
+      </c>
+      <c r="F131" t="s">
+        <v>448</v>
+      </c>
+      <c r="G131" t="s">
+        <v>449</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>695</v>
+      </c>
+      <c r="B132" t="s">
+        <v>696</v>
+      </c>
+      <c r="C132" t="s">
+        <v>130</v>
+      </c>
+      <c r="D132" t="s">
+        <v>697</v>
+      </c>
+      <c r="F132" t="s">
+        <v>698</v>
+      </c>
+      <c r="G132" t="s">
+        <v>699</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>700</v>
+      </c>
+      <c r="B133" t="s">
+        <v>701</v>
+      </c>
+      <c r="C133" t="s">
+        <v>130</v>
+      </c>
+      <c r="D133" t="s">
+        <v>142</v>
+      </c>
+      <c r="G133" t="s">
+        <v>702</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>703</v>
+      </c>
+      <c r="B134" t="s">
+        <v>704</v>
+      </c>
+      <c r="C134" t="s">
+        <v>130</v>
+      </c>
+      <c r="D134" t="s">
+        <v>705</v>
+      </c>
+      <c r="G134" t="s">
+        <v>706</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>707</v>
+      </c>
+      <c r="B135" t="s">
+        <v>708</v>
+      </c>
+      <c r="C135" t="s">
+        <v>130</v>
+      </c>
+      <c r="D135" t="s">
+        <v>709</v>
+      </c>
+      <c r="G135" t="s">
+        <v>710</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>711</v>
+      </c>
+      <c r="B136" t="s">
+        <v>712</v>
+      </c>
+      <c r="C136" t="s">
+        <v>308</v>
+      </c>
+      <c r="D136" t="s">
+        <v>75</v>
+      </c>
+      <c r="F136" t="s">
+        <v>314</v>
+      </c>
+      <c r="G136" t="s">
+        <v>315</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>713</v>
+      </c>
+      <c r="B137" t="s">
+        <v>714</v>
+      </c>
+      <c r="C137" t="s">
+        <v>130</v>
+      </c>
+      <c r="D137" t="s">
+        <v>715</v>
+      </c>
+      <c r="G137" t="s">
+        <v>716</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>717</v>
+      </c>
+      <c r="B138" t="s">
+        <v>718</v>
+      </c>
+      <c r="C138" t="s">
+        <v>130</v>
+      </c>
+      <c r="D138" t="s">
+        <v>652</v>
+      </c>
+      <c r="G138" t="s">
+        <v>315</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>719</v>
+      </c>
+      <c r="B139" t="s">
+        <v>720</v>
+      </c>
+      <c r="C139" t="s">
+        <v>501</v>
+      </c>
+      <c r="D139" t="s">
+        <v>502</v>
+      </c>
+      <c r="G139" t="s">
+        <v>503</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>721</v>
+      </c>
+      <c r="B140" t="s">
+        <v>722</v>
+      </c>
+      <c r="C140" t="s">
+        <v>130</v>
+      </c>
+      <c r="D140" t="s">
+        <v>153</v>
+      </c>
+      <c r="G140" t="s">
+        <v>699</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>723</v>
+      </c>
+      <c r="B141" t="s">
+        <v>724</v>
+      </c>
+      <c r="C141" t="s">
+        <v>196</v>
+      </c>
+      <c r="D141" t="s">
+        <v>218</v>
+      </c>
+      <c r="F141" t="s">
+        <v>219</v>
+      </c>
+      <c r="G141" t="s">
         <v>220</v>
       </c>
-      <c r="F18" t="s">
-        <v>221</v>
-      </c>
-      <c r="G18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" t="s">
-        <v>234</v>
-      </c>
-      <c r="F20" t="s">
-        <v>235</v>
-      </c>
-      <c r="G20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="H141" s="7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>725</v>
+      </c>
+      <c r="B142" t="s">
+        <v>726</v>
+      </c>
+      <c r="C142" t="s">
+        <v>533</v>
+      </c>
+      <c r="D142" t="s">
+        <v>534</v>
+      </c>
+      <c r="F142" t="s">
+        <v>535</v>
+      </c>
+      <c r="G142" t="s">
+        <v>536</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>727</v>
+      </c>
+      <c r="B143" t="s">
+        <v>728</v>
+      </c>
+      <c r="C143" t="s">
+        <v>533</v>
+      </c>
+      <c r="D143" t="s">
+        <v>142</v>
+      </c>
+      <c r="G143" t="s">
+        <v>554</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>729</v>
+      </c>
+      <c r="B144" t="s">
+        <v>730</v>
+      </c>
+      <c r="C144" t="s">
+        <v>130</v>
+      </c>
+      <c r="D144" t="s">
+        <v>142</v>
+      </c>
+      <c r="G144" t="s">
+        <v>731</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>732</v>
+      </c>
+      <c r="B145" t="s">
+        <v>733</v>
+      </c>
+      <c r="C145" t="s">
+        <v>130</v>
+      </c>
+      <c r="D145" t="s">
+        <v>734</v>
+      </c>
+      <c r="F145" t="s">
+        <v>735</v>
+      </c>
+      <c r="G145" t="s">
+        <v>736</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>737</v>
+      </c>
+      <c r="B146" t="s">
+        <v>738</v>
+      </c>
+      <c r="C146" t="s">
+        <v>196</v>
+      </c>
+      <c r="D146" t="s">
+        <v>240</v>
+      </c>
+      <c r="F146" t="s">
+        <v>241</v>
+      </c>
+      <c r="G146" t="s">
         <v>242</v>
       </c>
-      <c r="F21" t="s">
-        <v>243</v>
-      </c>
-      <c r="G21" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>246</v>
-      </c>
-      <c r="B22" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" t="s">
-        <v>250</v>
-      </c>
-      <c r="G22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>253</v>
-      </c>
-      <c r="B23" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>259</v>
-      </c>
-      <c r="B24" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>261</v>
-      </c>
-      <c r="B25" t="s">
-        <v>262</v>
-      </c>
-      <c r="C25" t="s">
-        <v>263</v>
-      </c>
-      <c r="D25" t="s">
-        <v>242</v>
-      </c>
-      <c r="F25" t="s">
-        <v>267</v>
-      </c>
-      <c r="G25" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>269</v>
-      </c>
-      <c r="B26" t="s">
-        <v>270</v>
-      </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>275</v>
-      </c>
-      <c r="B27" t="s">
-        <v>276</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" t="s">
-        <v>279</v>
-      </c>
-      <c r="G27" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>281</v>
-      </c>
-      <c r="B28" t="s">
-        <v>282</v>
-      </c>
-      <c r="C28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>288</v>
-      </c>
-      <c r="B29" t="s">
-        <v>290</v>
-      </c>
-      <c r="C29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>294</v>
-      </c>
-      <c r="B30" t="s">
-        <v>296</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>300</v>
-      </c>
-      <c r="B31" t="s">
-        <v>301</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>220</v>
-      </c>
-      <c r="G31" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>308</v>
-      </c>
-      <c r="B32" t="s">
-        <v>309</v>
-      </c>
-      <c r="C32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" t="s">
-        <v>316</v>
-      </c>
-      <c r="G32" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>319</v>
-      </c>
-      <c r="B33" t="s">
-        <v>320</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" t="s">
-        <v>326</v>
-      </c>
-      <c r="G33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>329</v>
-      </c>
-      <c r="B34" t="s">
-        <v>330</v>
-      </c>
-      <c r="C34" t="s">
-        <v>331</v>
-      </c>
-      <c r="D34" t="s">
-        <v>220</v>
-      </c>
-      <c r="F34" t="s">
-        <v>338</v>
-      </c>
-      <c r="G34" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>341</v>
-      </c>
-      <c r="B35" t="s">
-        <v>342</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>345</v>
-      </c>
-      <c r="B36" t="s">
-        <v>347</v>
-      </c>
-      <c r="C36" t="s">
-        <v>348</v>
-      </c>
-      <c r="D36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F36" t="s">
-        <v>354</v>
-      </c>
-      <c r="G36" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>356</v>
-      </c>
-      <c r="B37" t="s">
-        <v>357</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" t="s">
-        <v>362</v>
-      </c>
-      <c r="F37" t="s">
-        <v>364</v>
-      </c>
-      <c r="G37" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>366</v>
-      </c>
-      <c r="B38" t="s">
-        <v>367</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" t="s">
-        <v>369</v>
-      </c>
-      <c r="F38" t="s">
-        <v>371</v>
-      </c>
-      <c r="G38" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>374</v>
-      </c>
-      <c r="B39" t="s">
-        <v>375</v>
-      </c>
-      <c r="C39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" t="s">
-        <v>220</v>
-      </c>
-      <c r="F39" t="s">
-        <v>382</v>
-      </c>
-      <c r="G39" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>384</v>
-      </c>
-      <c r="B40" t="s">
-        <v>385</v>
-      </c>
-      <c r="C40" t="s">
-        <v>331</v>
-      </c>
-      <c r="D40" t="s">
-        <v>220</v>
-      </c>
-      <c r="F40" t="s">
-        <v>393</v>
-      </c>
-      <c r="G40" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>396</v>
-      </c>
-      <c r="B41" t="s">
-        <v>397</v>
-      </c>
-      <c r="C41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" t="s">
-        <v>155</v>
-      </c>
-      <c r="F41" t="s">
-        <v>404</v>
-      </c>
-      <c r="G41" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>407</v>
-      </c>
-      <c r="B42" t="s">
-        <v>408</v>
-      </c>
-      <c r="C42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" t="s">
-        <v>155</v>
-      </c>
-      <c r="F42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G42" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>412</v>
-      </c>
-      <c r="B43" t="s">
-        <v>413</v>
-      </c>
-      <c r="C43" t="s">
-        <v>415</v>
-      </c>
-      <c r="D43" t="s">
-        <v>417</v>
-      </c>
-      <c r="G43" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>419</v>
-      </c>
-      <c r="B44" t="s">
-        <v>420</v>
-      </c>
-      <c r="C44" t="s">
-        <v>415</v>
-      </c>
-      <c r="D44" t="s">
-        <v>421</v>
-      </c>
-      <c r="F44" t="s">
-        <v>422</v>
-      </c>
-      <c r="G44" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>424</v>
-      </c>
-      <c r="B45" t="s">
-        <v>425</v>
-      </c>
-      <c r="C45" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" t="s">
-        <v>155</v>
-      </c>
-      <c r="G45" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>427</v>
-      </c>
-      <c r="B46" t="s">
-        <v>428</v>
-      </c>
-      <c r="C46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" t="s">
-        <v>155</v>
-      </c>
-      <c r="G46" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>430</v>
-      </c>
-      <c r="B47" t="s">
-        <v>431</v>
-      </c>
-      <c r="C47" t="s">
-        <v>432</v>
-      </c>
-      <c r="G47" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>434</v>
-      </c>
-      <c r="B48" t="s">
-        <v>435</v>
-      </c>
-      <c r="C48" t="s">
-        <v>436</v>
-      </c>
-      <c r="D48" t="s">
-        <v>437</v>
-      </c>
-      <c r="G48" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>439</v>
-      </c>
-      <c r="B49" t="s">
-        <v>440</v>
-      </c>
-      <c r="C49" t="s">
-        <v>441</v>
-      </c>
-      <c r="D49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>443</v>
-      </c>
-      <c r="B50" t="s">
-        <v>444</v>
-      </c>
-      <c r="C50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" t="s">
-        <v>445</v>
-      </c>
-      <c r="F50" t="s">
-        <v>446</v>
-      </c>
-      <c r="G50" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>448</v>
-      </c>
-      <c r="B51" t="s">
-        <v>449</v>
-      </c>
-      <c r="C51" t="s">
-        <v>441</v>
-      </c>
-      <c r="D51" t="s">
-        <v>155</v>
-      </c>
-      <c r="F51" t="s">
-        <v>450</v>
-      </c>
-      <c r="G51" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>452</v>
-      </c>
-      <c r="B52" t="s">
-        <v>453</v>
-      </c>
-      <c r="C52" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" t="s">
-        <v>454</v>
-      </c>
-      <c r="G52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>456</v>
-      </c>
-      <c r="B53" t="s">
-        <v>457</v>
-      </c>
-      <c r="C53" t="s">
-        <v>458</v>
-      </c>
-      <c r="D53" t="s">
-        <v>459</v>
-      </c>
-      <c r="G53" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>460</v>
-      </c>
-      <c r="B54" t="s">
-        <v>461</v>
-      </c>
-      <c r="C54" t="s">
-        <v>80</v>
-      </c>
-      <c r="F54" t="s">
-        <v>462</v>
-      </c>
-      <c r="G54" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>464</v>
-      </c>
-      <c r="B55" t="s">
-        <v>465</v>
-      </c>
-      <c r="C55" t="s">
-        <v>80</v>
-      </c>
-      <c r="G55" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>467</v>
-      </c>
-      <c r="B56" t="s">
-        <v>468</v>
-      </c>
-      <c r="C56" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>470</v>
-      </c>
-      <c r="B57" t="s">
-        <v>471</v>
-      </c>
-      <c r="C57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>472</v>
-      </c>
-      <c r="B58" t="s">
-        <v>473</v>
-      </c>
-      <c r="C58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G58" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>474</v>
-      </c>
-      <c r="B59" t="s">
-        <v>475</v>
-      </c>
-      <c r="C59" t="s">
-        <v>458</v>
-      </c>
-      <c r="G59" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>477</v>
-      </c>
-      <c r="B60" t="s">
-        <v>478</v>
-      </c>
-      <c r="C60" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" t="s">
-        <v>437</v>
-      </c>
-      <c r="G60" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>480</v>
-      </c>
-      <c r="B61" t="s">
-        <v>481</v>
-      </c>
-      <c r="C61" t="s">
-        <v>436</v>
-      </c>
-      <c r="D61" t="s">
-        <v>437</v>
-      </c>
-      <c r="G61" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>483</v>
-      </c>
-      <c r="B62" t="s">
-        <v>484</v>
-      </c>
-      <c r="C62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>485</v>
-      </c>
-      <c r="B63" t="s">
-        <v>486</v>
-      </c>
-      <c r="C63" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" t="s">
-        <v>220</v>
-      </c>
-      <c r="F63" t="s">
-        <v>487</v>
-      </c>
-      <c r="G63" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>489</v>
-      </c>
-      <c r="B64" t="s">
-        <v>490</v>
-      </c>
-      <c r="C64" t="s">
-        <v>491</v>
-      </c>
-      <c r="D64" t="s">
-        <v>492</v>
-      </c>
-      <c r="G64" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>494</v>
-      </c>
-      <c r="B65" t="s">
-        <v>495</v>
-      </c>
-      <c r="C65" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" t="s">
-        <v>220</v>
-      </c>
-      <c r="G65" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>497</v>
-      </c>
-      <c r="B66" t="s">
-        <v>498</v>
-      </c>
-      <c r="C66" t="s">
-        <v>89</v>
-      </c>
-      <c r="F66" t="s">
-        <v>499</v>
-      </c>
-      <c r="G66" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>501</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="H146" s="7" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>739</v>
+      </c>
+      <c r="B147" t="s">
+        <v>740</v>
+      </c>
+      <c r="C147" t="s">
+        <v>130</v>
+      </c>
+      <c r="D147" t="s">
+        <v>652</v>
+      </c>
+      <c r="G147" t="s">
+        <v>741</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>742</v>
+      </c>
+      <c r="B148" t="s">
+        <v>743</v>
+      </c>
+      <c r="C148" t="s">
+        <v>744</v>
+      </c>
+      <c r="D148" t="s">
+        <v>745</v>
+      </c>
+      <c r="G148" t="s">
+        <v>746</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>747</v>
+      </c>
+      <c r="B149" t="s">
+        <v>748</v>
+      </c>
+      <c r="C149" t="s">
+        <v>744</v>
+      </c>
+      <c r="D149" t="s">
+        <v>749</v>
+      </c>
+      <c r="F149" t="s">
+        <v>750</v>
+      </c>
+      <c r="G149" t="s">
+        <v>678</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>751</v>
+      </c>
+      <c r="B150" t="s">
+        <v>752</v>
+      </c>
+      <c r="C150" t="s">
+        <v>744</v>
+      </c>
+      <c r="D150" t="s">
         <v>502</v>
       </c>
-      <c r="C67" t="s">
-        <v>503</v>
-      </c>
-      <c r="D67" t="s">
-        <v>504</v>
-      </c>
-      <c r="G67" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>506</v>
-      </c>
-      <c r="B68" t="s">
-        <v>507</v>
-      </c>
-      <c r="C68" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" t="s">
-        <v>508</v>
-      </c>
-      <c r="G68" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>509</v>
-      </c>
-      <c r="B69" t="s">
-        <v>510</v>
-      </c>
-      <c r="C69" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" t="s">
-        <v>220</v>
-      </c>
-      <c r="G69" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>512</v>
-      </c>
-      <c r="B70" t="s">
-        <v>513</v>
-      </c>
-      <c r="C70" t="s">
-        <v>331</v>
-      </c>
-      <c r="D70" t="s">
-        <v>220</v>
-      </c>
-      <c r="F70" t="s">
-        <v>338</v>
-      </c>
-      <c r="G70" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>514</v>
-      </c>
-      <c r="B71" t="s">
-        <v>515</v>
-      </c>
-      <c r="C71" t="s">
-        <v>331</v>
-      </c>
-      <c r="D71" t="s">
-        <v>220</v>
-      </c>
-      <c r="F71" t="s">
-        <v>393</v>
-      </c>
-      <c r="G71" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>516</v>
-      </c>
-      <c r="B72" t="s">
-        <v>517</v>
-      </c>
-      <c r="C72" t="s">
-        <v>432</v>
-      </c>
-      <c r="G72" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>518</v>
-      </c>
-      <c r="B73" t="s">
-        <v>519</v>
-      </c>
-      <c r="C73" t="s">
-        <v>520</v>
-      </c>
-      <c r="D73" t="s">
-        <v>521</v>
-      </c>
-      <c r="G73" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>523</v>
-      </c>
-      <c r="B74" t="s">
-        <v>524</v>
-      </c>
-      <c r="C74" t="s">
-        <v>520</v>
-      </c>
-      <c r="D74" t="s">
-        <v>525</v>
-      </c>
-      <c r="G74" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>527</v>
-      </c>
-      <c r="B75" t="s">
-        <v>528</v>
-      </c>
-      <c r="C75" t="s">
-        <v>520</v>
-      </c>
-      <c r="F75" t="s">
-        <v>529</v>
-      </c>
-      <c r="G75" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>531</v>
-      </c>
-      <c r="B76" t="s">
-        <v>532</v>
-      </c>
-      <c r="C76" t="s">
-        <v>458</v>
-      </c>
-      <c r="D76" t="s">
-        <v>459</v>
-      </c>
-      <c r="G76" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>533</v>
-      </c>
-      <c r="B77" t="s">
-        <v>534</v>
-      </c>
-      <c r="C77" t="s">
-        <v>535</v>
-      </c>
-      <c r="D77" t="s">
-        <v>536</v>
-      </c>
-      <c r="F77" t="s">
-        <v>537</v>
-      </c>
-      <c r="G77" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>539</v>
-      </c>
-      <c r="B78" t="s">
-        <v>540</v>
-      </c>
-      <c r="C78" t="s">
-        <v>348</v>
-      </c>
-      <c r="D78" t="s">
-        <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>354</v>
-      </c>
-      <c r="G78" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>541</v>
-      </c>
-      <c r="B79" t="s">
-        <v>542</v>
-      </c>
-      <c r="C79" t="s">
-        <v>458</v>
-      </c>
-      <c r="G79" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>543</v>
-      </c>
-      <c r="B80" t="s">
-        <v>544</v>
-      </c>
-      <c r="C80" t="s">
-        <v>520</v>
-      </c>
-      <c r="G80" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>546</v>
-      </c>
-      <c r="B81" t="s">
-        <v>547</v>
-      </c>
-      <c r="C81" t="s">
-        <v>520</v>
-      </c>
-      <c r="D81" t="s">
-        <v>437</v>
-      </c>
-      <c r="F81" t="s">
-        <v>548</v>
-      </c>
-      <c r="G81" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>550</v>
-      </c>
-      <c r="B82" t="s">
-        <v>551</v>
-      </c>
-      <c r="C82" t="s">
-        <v>520</v>
-      </c>
-      <c r="D82" t="s">
-        <v>155</v>
-      </c>
-      <c r="F82" t="s">
-        <v>552</v>
-      </c>
-      <c r="G82" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>554</v>
-      </c>
-      <c r="B83" t="s">
-        <v>555</v>
-      </c>
-      <c r="C83" t="s">
-        <v>535</v>
-      </c>
-      <c r="D83" t="s">
-        <v>144</v>
-      </c>
-      <c r="G83" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>557</v>
-      </c>
-      <c r="B84" t="s">
-        <v>558</v>
-      </c>
-      <c r="C84" t="s">
-        <v>559</v>
-      </c>
-      <c r="G84" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>561</v>
-      </c>
-      <c r="B85" t="s">
-        <v>562</v>
-      </c>
-      <c r="C85" t="s">
-        <v>432</v>
-      </c>
-      <c r="G85" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>563</v>
-      </c>
-      <c r="B86" t="s">
-        <v>564</v>
-      </c>
-      <c r="C86" t="s">
-        <v>177</v>
-      </c>
-      <c r="D86" t="s">
-        <v>181</v>
-      </c>
-      <c r="G86" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>565</v>
-      </c>
-      <c r="B87" t="s">
-        <v>566</v>
-      </c>
-      <c r="C87" t="s">
-        <v>177</v>
-      </c>
-      <c r="D87" t="s">
-        <v>188</v>
-      </c>
-      <c r="G87" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>567</v>
-      </c>
-      <c r="B88" t="s">
-        <v>568</v>
-      </c>
-      <c r="C88" t="s">
-        <v>95</v>
-      </c>
-      <c r="G88" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>570</v>
-      </c>
-      <c r="B89" t="s">
-        <v>571</v>
-      </c>
-      <c r="C89" t="s">
-        <v>95</v>
-      </c>
-      <c r="D89" t="s">
-        <v>572</v>
-      </c>
-      <c r="F89" t="s">
-        <v>573</v>
-      </c>
-      <c r="G89" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>575</v>
-      </c>
-      <c r="B90" t="s">
-        <v>576</v>
-      </c>
-      <c r="C90" t="s">
-        <v>95</v>
-      </c>
-      <c r="G90" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>578</v>
-      </c>
-      <c r="B91" t="s">
-        <v>579</v>
-      </c>
-      <c r="C91" t="s">
-        <v>177</v>
-      </c>
-      <c r="D91" t="s">
-        <v>194</v>
-      </c>
-      <c r="G91" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>580</v>
-      </c>
-      <c r="B92" t="s">
-        <v>581</v>
-      </c>
-      <c r="C92" t="s">
-        <v>436</v>
-      </c>
-      <c r="D92" t="s">
-        <v>437</v>
-      </c>
-      <c r="G92" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>582</v>
-      </c>
-      <c r="B93" t="s">
-        <v>583</v>
-      </c>
-      <c r="C93" t="s">
-        <v>198</v>
-      </c>
-      <c r="D93" t="s">
-        <v>203</v>
-      </c>
-      <c r="F93" t="s">
-        <v>204</v>
-      </c>
-      <c r="G93" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>584</v>
-      </c>
-      <c r="B94" t="s">
-        <v>585</v>
-      </c>
-      <c r="C94" t="s">
-        <v>198</v>
-      </c>
-      <c r="D94" t="s">
-        <v>210</v>
-      </c>
-      <c r="F94" t="s">
-        <v>211</v>
-      </c>
-      <c r="G94" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>586</v>
-      </c>
-      <c r="B95" t="s">
-        <v>587</v>
-      </c>
-      <c r="C95" t="s">
-        <v>491</v>
-      </c>
-      <c r="D95" t="s">
-        <v>492</v>
-      </c>
-      <c r="G95" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>588</v>
-      </c>
-      <c r="B96" t="s">
-        <v>589</v>
-      </c>
-      <c r="C96" t="s">
-        <v>198</v>
-      </c>
-      <c r="D96" t="s">
-        <v>220</v>
-      </c>
-      <c r="F96" t="s">
-        <v>221</v>
-      </c>
-      <c r="G96" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>590</v>
-      </c>
-      <c r="B97" t="s">
-        <v>591</v>
-      </c>
-      <c r="C97" t="s">
-        <v>415</v>
-      </c>
-      <c r="D97" t="s">
-        <v>417</v>
-      </c>
-      <c r="G97" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>592</v>
-      </c>
-      <c r="B98" t="s">
-        <v>593</v>
-      </c>
-      <c r="C98" t="s">
-        <v>95</v>
-      </c>
-      <c r="G98" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>594</v>
-      </c>
-      <c r="B99" t="s">
-        <v>595</v>
-      </c>
-      <c r="C99" t="s">
-        <v>177</v>
-      </c>
-      <c r="D99" t="s">
-        <v>230</v>
-      </c>
-      <c r="G99" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>596</v>
-      </c>
-      <c r="B100" t="s">
-        <v>597</v>
-      </c>
-      <c r="C100" t="s">
-        <v>436</v>
-      </c>
-      <c r="D100" t="s">
-        <v>437</v>
-      </c>
-      <c r="G100" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>598</v>
-      </c>
-      <c r="B101" t="s">
-        <v>599</v>
-      </c>
-      <c r="C101" t="s">
-        <v>95</v>
-      </c>
-      <c r="D101" t="s">
-        <v>600</v>
-      </c>
-      <c r="G101" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>602</v>
-      </c>
-      <c r="B102" t="s">
-        <v>603</v>
-      </c>
-      <c r="C102" t="s">
-        <v>177</v>
-      </c>
-      <c r="D102" t="s">
-        <v>234</v>
-      </c>
-      <c r="F102" t="s">
-        <v>235</v>
-      </c>
-      <c r="G102" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>604</v>
-      </c>
-      <c r="B103" t="s">
-        <v>605</v>
-      </c>
-      <c r="C103" t="s">
-        <v>95</v>
-      </c>
-      <c r="D103" t="s">
-        <v>606</v>
-      </c>
-      <c r="F103" t="s">
-        <v>607</v>
-      </c>
-      <c r="G103" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>609</v>
-      </c>
-      <c r="B104" t="s">
-        <v>610</v>
-      </c>
-      <c r="C104" t="s">
-        <v>198</v>
-      </c>
-      <c r="D104" t="s">
-        <v>242</v>
-      </c>
-      <c r="F104" t="s">
-        <v>243</v>
-      </c>
-      <c r="G104" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>611</v>
-      </c>
-      <c r="B105" t="s">
-        <v>612</v>
-      </c>
-      <c r="C105" t="s">
-        <v>559</v>
-      </c>
-      <c r="G105" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>613</v>
-      </c>
-      <c r="B106" t="s">
-        <v>614</v>
-      </c>
-      <c r="C106" t="s">
-        <v>177</v>
-      </c>
-      <c r="D106" t="s">
-        <v>250</v>
-      </c>
-      <c r="G106" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>615</v>
-      </c>
-      <c r="B107" t="s">
-        <v>616</v>
-      </c>
-      <c r="C107" t="s">
-        <v>177</v>
-      </c>
-      <c r="D107" t="s">
-        <v>155</v>
-      </c>
-      <c r="G107" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>617</v>
-      </c>
-      <c r="B108" t="s">
-        <v>618</v>
-      </c>
-      <c r="C108" t="s">
-        <v>177</v>
-      </c>
-      <c r="D108" t="s">
-        <v>155</v>
-      </c>
-      <c r="G108" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>619</v>
-      </c>
-      <c r="B109" t="s">
-        <v>620</v>
-      </c>
-      <c r="C109" t="s">
-        <v>263</v>
-      </c>
-      <c r="D109" t="s">
-        <v>242</v>
-      </c>
-      <c r="F109" t="s">
-        <v>267</v>
-      </c>
-      <c r="G109" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>621</v>
-      </c>
-      <c r="B110" t="s">
-        <v>622</v>
-      </c>
-      <c r="C110" t="s">
-        <v>415</v>
-      </c>
-      <c r="D110" t="s">
-        <v>421</v>
-      </c>
-      <c r="F110" t="s">
-        <v>422</v>
-      </c>
-      <c r="G110" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>623</v>
-      </c>
-      <c r="B111" t="s">
-        <v>624</v>
-      </c>
-      <c r="C111" t="s">
-        <v>95</v>
-      </c>
-      <c r="D111" t="s">
-        <v>437</v>
-      </c>
-      <c r="G111" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>626</v>
-      </c>
-      <c r="B112" t="s">
-        <v>627</v>
-      </c>
-      <c r="C112" t="s">
-        <v>95</v>
-      </c>
-      <c r="D112" t="s">
-        <v>628</v>
-      </c>
-      <c r="F112" t="s">
-        <v>629</v>
-      </c>
-      <c r="G112" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>630</v>
-      </c>
-      <c r="B113" t="s">
-        <v>631</v>
-      </c>
-      <c r="C113" t="s">
-        <v>95</v>
-      </c>
-      <c r="D113" t="s">
-        <v>632</v>
-      </c>
-      <c r="F113" t="s">
-        <v>633</v>
-      </c>
-      <c r="G113" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>635</v>
-      </c>
-      <c r="B114" t="s">
-        <v>636</v>
-      </c>
-      <c r="C114" t="s">
-        <v>95</v>
-      </c>
-      <c r="D114" t="s">
-        <v>637</v>
-      </c>
-      <c r="G114" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>639</v>
-      </c>
-      <c r="B115" t="s">
-        <v>640</v>
-      </c>
-      <c r="C115" t="s">
-        <v>95</v>
-      </c>
-      <c r="D115" t="s">
-        <v>641</v>
-      </c>
-      <c r="G115" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>642</v>
-      </c>
-      <c r="B116" t="s">
-        <v>643</v>
-      </c>
-      <c r="C116" t="s">
-        <v>95</v>
-      </c>
-      <c r="G116" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>645</v>
-      </c>
-      <c r="B117" t="s">
-        <v>646</v>
-      </c>
-      <c r="C117" t="s">
-        <v>95</v>
-      </c>
-      <c r="D117" t="s">
-        <v>421</v>
-      </c>
-      <c r="G117" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>648</v>
-      </c>
-      <c r="B118" t="s">
-        <v>649</v>
-      </c>
-      <c r="C118" t="s">
-        <v>132</v>
-      </c>
-      <c r="D118" t="s">
-        <v>650</v>
-      </c>
-      <c r="G118" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>652</v>
-      </c>
-      <c r="B119" t="s">
-        <v>653</v>
-      </c>
-      <c r="C119" t="s">
-        <v>132</v>
-      </c>
-      <c r="D119" t="s">
-        <v>654</v>
-      </c>
-      <c r="G119" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>656</v>
-      </c>
-      <c r="B120" t="s">
-        <v>657</v>
-      </c>
-      <c r="C120" t="s">
-        <v>198</v>
-      </c>
-      <c r="D120" t="s">
-        <v>203</v>
-      </c>
-      <c r="F120" t="s">
-        <v>204</v>
-      </c>
-      <c r="G120" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>658</v>
-      </c>
-      <c r="B121" t="s">
-        <v>659</v>
-      </c>
-      <c r="C121" t="s">
-        <v>132</v>
-      </c>
-      <c r="D121" t="s">
-        <v>660</v>
-      </c>
-      <c r="F121" t="s">
-        <v>661</v>
-      </c>
-      <c r="G121" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>663</v>
-      </c>
-      <c r="B122" t="s">
-        <v>664</v>
-      </c>
-      <c r="C122" t="s">
-        <v>132</v>
-      </c>
-      <c r="D122" t="s">
-        <v>665</v>
-      </c>
-      <c r="F122" t="s">
-        <v>666</v>
-      </c>
-      <c r="G122" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>668</v>
-      </c>
-      <c r="B123" t="s">
-        <v>669</v>
-      </c>
-      <c r="C123" t="s">
-        <v>132</v>
-      </c>
-      <c r="D123" t="s">
-        <v>144</v>
-      </c>
-      <c r="F123" t="s">
-        <v>670</v>
-      </c>
-      <c r="G123" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>672</v>
-      </c>
-      <c r="B124" t="s">
-        <v>673</v>
-      </c>
-      <c r="C124" t="s">
-        <v>132</v>
-      </c>
-      <c r="D124" t="s">
-        <v>674</v>
-      </c>
-      <c r="F124" t="s">
-        <v>675</v>
-      </c>
-      <c r="G124" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>677</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="F150" t="s">
+        <v>753</v>
+      </c>
+      <c r="G150" t="s">
         <v>678</v>
       </c>
-      <c r="C125" t="s">
-        <v>132</v>
-      </c>
-      <c r="D125" t="s">
-        <v>144</v>
-      </c>
-      <c r="F125" t="s">
-        <v>679</v>
-      </c>
-      <c r="G125" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>681</v>
-      </c>
-      <c r="B126" t="s">
-        <v>682</v>
-      </c>
-      <c r="C126" t="s">
-        <v>132</v>
-      </c>
-      <c r="D126" t="s">
-        <v>77</v>
-      </c>
-      <c r="F126" t="s">
-        <v>683</v>
-      </c>
-      <c r="G126" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>685</v>
-      </c>
-      <c r="B127" t="s">
-        <v>686</v>
-      </c>
-      <c r="C127" t="s">
-        <v>441</v>
-      </c>
-      <c r="D127" t="s">
-        <v>155</v>
-      </c>
-      <c r="G127" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>687</v>
-      </c>
-      <c r="B128" t="s">
-        <v>688</v>
-      </c>
-      <c r="C128" t="s">
-        <v>132</v>
-      </c>
-      <c r="D128" t="s">
-        <v>492</v>
-      </c>
-      <c r="G128" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>690</v>
-      </c>
-      <c r="B129" t="s">
-        <v>691</v>
-      </c>
-      <c r="C129" t="s">
-        <v>132</v>
-      </c>
-      <c r="D129" t="s">
-        <v>155</v>
-      </c>
-      <c r="G129" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>693</v>
-      </c>
-      <c r="B130" t="s">
-        <v>694</v>
-      </c>
-      <c r="C130" t="s">
-        <v>198</v>
-      </c>
-      <c r="D130" t="s">
-        <v>210</v>
-      </c>
-      <c r="F130" t="s">
-        <v>211</v>
-      </c>
-      <c r="G130" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>695</v>
-      </c>
-      <c r="B131" t="s">
-        <v>696</v>
-      </c>
-      <c r="C131" t="s">
-        <v>441</v>
-      </c>
-      <c r="D131" t="s">
-        <v>155</v>
-      </c>
-      <c r="F131" t="s">
-        <v>450</v>
-      </c>
-      <c r="G131" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>697</v>
-      </c>
-      <c r="B132" t="s">
-        <v>698</v>
-      </c>
-      <c r="C132" t="s">
-        <v>132</v>
-      </c>
-      <c r="D132" t="s">
-        <v>699</v>
-      </c>
-      <c r="F132" t="s">
-        <v>700</v>
-      </c>
-      <c r="G132" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>702</v>
-      </c>
-      <c r="B133" t="s">
-        <v>703</v>
-      </c>
-      <c r="C133" t="s">
-        <v>132</v>
-      </c>
-      <c r="D133" t="s">
-        <v>144</v>
-      </c>
-      <c r="G133" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>705</v>
-      </c>
-      <c r="B134" t="s">
-        <v>706</v>
-      </c>
-      <c r="C134" t="s">
-        <v>132</v>
-      </c>
-      <c r="D134" t="s">
-        <v>707</v>
-      </c>
-      <c r="G134" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>709</v>
-      </c>
-      <c r="B135" t="s">
-        <v>710</v>
-      </c>
-      <c r="C135" t="s">
-        <v>132</v>
-      </c>
-      <c r="D135" t="s">
-        <v>711</v>
-      </c>
-      <c r="G135" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>713</v>
-      </c>
-      <c r="B136" t="s">
-        <v>714</v>
-      </c>
-      <c r="C136" t="s">
-        <v>310</v>
-      </c>
-      <c r="D136" t="s">
-        <v>77</v>
-      </c>
-      <c r="F136" t="s">
-        <v>316</v>
-      </c>
-      <c r="G136" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>715</v>
-      </c>
-      <c r="B137" t="s">
-        <v>716</v>
-      </c>
-      <c r="C137" t="s">
-        <v>132</v>
-      </c>
-      <c r="D137" t="s">
-        <v>717</v>
-      </c>
-      <c r="G137" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>719</v>
-      </c>
-      <c r="B138" t="s">
-        <v>720</v>
-      </c>
-      <c r="C138" t="s">
-        <v>132</v>
-      </c>
-      <c r="D138" t="s">
-        <v>654</v>
-      </c>
-      <c r="G138" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>721</v>
-      </c>
-      <c r="B139" t="s">
-        <v>722</v>
-      </c>
-      <c r="C139" t="s">
-        <v>503</v>
-      </c>
-      <c r="D139" t="s">
-        <v>504</v>
-      </c>
-      <c r="G139" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>723</v>
-      </c>
-      <c r="B140" t="s">
-        <v>724</v>
-      </c>
-      <c r="C140" t="s">
-        <v>132</v>
-      </c>
-      <c r="D140" t="s">
-        <v>155</v>
-      </c>
-      <c r="G140" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>725</v>
-      </c>
-      <c r="B141" t="s">
-        <v>726</v>
-      </c>
-      <c r="C141" t="s">
-        <v>198</v>
-      </c>
-      <c r="D141" t="s">
-        <v>220</v>
-      </c>
-      <c r="F141" t="s">
-        <v>221</v>
-      </c>
-      <c r="G141" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>727</v>
-      </c>
-      <c r="B142" t="s">
-        <v>728</v>
-      </c>
-      <c r="C142" t="s">
-        <v>535</v>
-      </c>
-      <c r="D142" t="s">
-        <v>536</v>
-      </c>
-      <c r="F142" t="s">
-        <v>537</v>
-      </c>
-      <c r="G142" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>729</v>
-      </c>
-      <c r="B143" t="s">
-        <v>730</v>
-      </c>
-      <c r="C143" t="s">
-        <v>535</v>
-      </c>
-      <c r="D143" t="s">
-        <v>144</v>
-      </c>
-      <c r="G143" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>731</v>
-      </c>
-      <c r="B144" t="s">
-        <v>732</v>
-      </c>
-      <c r="C144" t="s">
-        <v>132</v>
-      </c>
-      <c r="D144" t="s">
-        <v>144</v>
-      </c>
-      <c r="G144" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>734</v>
-      </c>
-      <c r="B145" t="s">
-        <v>735</v>
-      </c>
-      <c r="C145" t="s">
-        <v>132</v>
-      </c>
-      <c r="D145" t="s">
-        <v>736</v>
-      </c>
-      <c r="F145" t="s">
-        <v>737</v>
-      </c>
-      <c r="G145" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>739</v>
-      </c>
-      <c r="B146" t="s">
-        <v>740</v>
-      </c>
-      <c r="C146" t="s">
-        <v>198</v>
-      </c>
-      <c r="D146" t="s">
-        <v>242</v>
-      </c>
-      <c r="F146" t="s">
-        <v>243</v>
-      </c>
-      <c r="G146" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>741</v>
-      </c>
-      <c r="B147" t="s">
-        <v>742</v>
-      </c>
-      <c r="C147" t="s">
-        <v>132</v>
-      </c>
-      <c r="D147" t="s">
-        <v>654</v>
-      </c>
-      <c r="G147" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="H150" s="7" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>754</v>
+      </c>
+      <c r="B151" t="s">
+        <v>755</v>
+      </c>
+      <c r="C151" t="s">
         <v>744</v>
       </c>
-      <c r="B148" t="s">
-        <v>745</v>
-      </c>
-      <c r="C148" t="s">
-        <v>746</v>
-      </c>
-      <c r="D148" t="s">
-        <v>747</v>
-      </c>
-      <c r="G148" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>749</v>
-      </c>
-      <c r="B149" t="s">
-        <v>750</v>
-      </c>
-      <c r="C149" t="s">
-        <v>746</v>
-      </c>
-      <c r="D149" t="s">
-        <v>751</v>
-      </c>
-      <c r="F149" t="s">
-        <v>752</v>
-      </c>
-      <c r="G149" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>753</v>
-      </c>
-      <c r="B150" t="s">
-        <v>754</v>
-      </c>
-      <c r="C150" t="s">
-        <v>746</v>
-      </c>
-      <c r="D150" t="s">
-        <v>504</v>
-      </c>
-      <c r="F150" t="s">
-        <v>755</v>
-      </c>
-      <c r="G150" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="D151" t="s">
         <v>756</v>
       </c>
-      <c r="B151" t="s">
+      <c r="F151" t="s">
         <v>757</v>
       </c>
-      <c r="C151" t="s">
-        <v>746</v>
-      </c>
-      <c r="D151" t="s">
-        <v>758</v>
-      </c>
-      <c r="F151" t="s">
-        <v>759</v>
-      </c>
       <c r="G151" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>678</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16165,7 +17141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -16176,1211 +17152,1211 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
         <v>86</v>
       </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
         <v>96</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
         <v>111</v>
-      </c>
-      <c r="E9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
         <v>118</v>
       </c>
-      <c r="D11" t="s">
-        <v>120</v>
-      </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
         <v>133</v>
-      </c>
-      <c r="E13" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" t="s">
         <v>167</v>
-      </c>
-      <c r="D16" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" t="s">
         <v>171</v>
       </c>
-      <c r="B17" t="s">
-        <v>173</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" t="s">
         <v>171</v>
       </c>
-      <c r="B18" t="s">
-        <v>173</v>
-      </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" t="s">
         <v>171</v>
       </c>
-      <c r="B19" t="s">
-        <v>173</v>
-      </c>
       <c r="C19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" t="s">
         <v>187</v>
       </c>
-      <c r="D19" t="s">
-        <v>189</v>
-      </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" t="s">
         <v>171</v>
       </c>
-      <c r="B20" t="s">
-        <v>173</v>
-      </c>
       <c r="C20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" t="s">
         <v>193</v>
-      </c>
-      <c r="E20" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" t="s">
         <v>171</v>
       </c>
-      <c r="B21" t="s">
-        <v>173</v>
-      </c>
       <c r="C21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" t="s">
         <v>199</v>
-      </c>
-      <c r="D21" t="s">
-        <v>200</v>
-      </c>
-      <c r="E21" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" t="s">
         <v>171</v>
       </c>
-      <c r="B22" t="s">
-        <v>173</v>
-      </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" t="s">
         <v>171</v>
       </c>
-      <c r="B23" t="s">
-        <v>173</v>
-      </c>
       <c r="C23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s">
         <v>171</v>
       </c>
-      <c r="B24" t="s">
-        <v>173</v>
-      </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" t="s">
         <v>224</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>226</v>
       </c>
-      <c r="D25" t="s">
-        <v>228</v>
-      </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C28" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" t="s">
         <v>239</v>
-      </c>
-      <c r="D28" t="s">
-        <v>240</v>
-      </c>
-      <c r="E28" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" t="s">
         <v>133</v>
-      </c>
-      <c r="E34" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B35" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" t="s">
         <v>264</v>
-      </c>
-      <c r="D36" t="s">
-        <v>265</v>
-      </c>
-      <c r="E36" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" t="s">
         <v>187</v>
       </c>
-      <c r="D37" t="s">
-        <v>189</v>
-      </c>
       <c r="E37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B41" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C41" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E41" t="s">
         <v>283</v>
-      </c>
-      <c r="D41" t="s">
-        <v>284</v>
-      </c>
-      <c r="E41" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C42" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D42" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" t="s">
         <v>287</v>
-      </c>
-      <c r="E42" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" t="s">
         <v>111</v>
-      </c>
-      <c r="E43" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E44" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" t="s">
         <v>293</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>295</v>
-      </c>
-      <c r="C45" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>291</v>
+      </c>
+      <c r="B46" t="s">
         <v>293</v>
       </c>
-      <c r="B46" t="s">
-        <v>295</v>
-      </c>
       <c r="C46" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>291</v>
+      </c>
+      <c r="B47" t="s">
         <v>293</v>
       </c>
-      <c r="B47" t="s">
-        <v>295</v>
-      </c>
       <c r="C47" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>291</v>
+      </c>
+      <c r="B48" t="s">
         <v>293</v>
       </c>
-      <c r="B48" t="s">
-        <v>295</v>
-      </c>
       <c r="C48" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>291</v>
+      </c>
+      <c r="B49" t="s">
         <v>293</v>
       </c>
-      <c r="B49" t="s">
-        <v>295</v>
-      </c>
       <c r="C49" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>291</v>
+      </c>
+      <c r="B50" t="s">
         <v>293</v>
       </c>
-      <c r="B50" t="s">
-        <v>295</v>
-      </c>
       <c r="C50" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>291</v>
+      </c>
+      <c r="B51" t="s">
         <v>293</v>
       </c>
-      <c r="B51" t="s">
-        <v>295</v>
-      </c>
       <c r="C51" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>291</v>
+      </c>
+      <c r="B52" t="s">
         <v>293</v>
       </c>
-      <c r="B52" t="s">
-        <v>295</v>
-      </c>
       <c r="C52" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>291</v>
+      </c>
+      <c r="B53" t="s">
         <v>293</v>
       </c>
-      <c r="B53" t="s">
-        <v>295</v>
-      </c>
       <c r="C53" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>291</v>
+      </c>
+      <c r="B54" t="s">
         <v>293</v>
       </c>
-      <c r="B54" t="s">
-        <v>295</v>
-      </c>
       <c r="C54" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B55" t="s">
         <v>293</v>
       </c>
-      <c r="B55" t="s">
-        <v>295</v>
-      </c>
       <c r="C55" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" t="s">
         <v>293</v>
       </c>
-      <c r="B56" t="s">
-        <v>295</v>
-      </c>
       <c r="C56" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>291</v>
+      </c>
+      <c r="B57" t="s">
         <v>293</v>
       </c>
-      <c r="B57" t="s">
-        <v>295</v>
-      </c>
       <c r="C57" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>291</v>
+      </c>
+      <c r="B58" t="s">
         <v>293</v>
       </c>
-      <c r="B58" t="s">
-        <v>295</v>
-      </c>
       <c r="C58" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59" t="s">
         <v>293</v>
       </c>
-      <c r="B59" t="s">
-        <v>295</v>
-      </c>
       <c r="C59" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>291</v>
+      </c>
+      <c r="B60" t="s">
         <v>293</v>
       </c>
-      <c r="B60" t="s">
-        <v>295</v>
-      </c>
       <c r="C60" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>291</v>
+      </c>
+      <c r="B61" t="s">
         <v>293</v>
       </c>
-      <c r="B61" t="s">
-        <v>295</v>
-      </c>
       <c r="C61" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>291</v>
+      </c>
+      <c r="B62" t="s">
         <v>293</v>
       </c>
-      <c r="B62" t="s">
-        <v>295</v>
-      </c>
       <c r="C62" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>291</v>
+      </c>
+      <c r="B63" t="s">
         <v>293</v>
       </c>
-      <c r="B63" t="s">
-        <v>295</v>
-      </c>
       <c r="C63" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>291</v>
+      </c>
+      <c r="B64" t="s">
         <v>293</v>
       </c>
-      <c r="B64" t="s">
-        <v>295</v>
-      </c>
       <c r="C64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B65" t="s">
+        <v>332</v>
+      </c>
+      <c r="C65" t="s">
         <v>333</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
         <v>334</v>
-      </c>
-      <c r="C65" t="s">
-        <v>335</v>
-      </c>
-      <c r="D65" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C66" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E66" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C67" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D67" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E67" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B68" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C68" t="s">
+        <v>348</v>
+      </c>
+      <c r="D68" t="s">
+        <v>349</v>
+      </c>
+      <c r="E68" t="s">
         <v>350</v>
-      </c>
-      <c r="D68" t="s">
-        <v>351</v>
-      </c>
-      <c r="E68" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B69" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C69" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D69" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B70" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C70" t="s">
+        <v>357</v>
+      </c>
+      <c r="D70" t="s">
+        <v>358</v>
+      </c>
+      <c r="E70" t="s">
         <v>359</v>
-      </c>
-      <c r="D70" t="s">
-        <v>360</v>
-      </c>
-      <c r="E70" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B71" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C71" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D71" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B72" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C72" t="s">
+        <v>368</v>
+      </c>
+      <c r="E72" t="s">
         <v>370</v>
-      </c>
-      <c r="E72" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B73" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C73" t="s">
+        <v>374</v>
+      </c>
+      <c r="D73" t="s">
+        <v>375</v>
+      </c>
+      <c r="E73" t="s">
         <v>376</v>
-      </c>
-      <c r="D73" t="s">
-        <v>377</v>
-      </c>
-      <c r="E73" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B74" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C74" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D74" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B75" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C75" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D75" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B76" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C76" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E76" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B77" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C77" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E77" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B78" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C78" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E78" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B79" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C79" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D79" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E79" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B80" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C80" t="s">
+        <v>398</v>
+      </c>
+      <c r="D80" t="s">
+        <v>399</v>
+      </c>
+      <c r="E80" t="s">
         <v>400</v>
-      </c>
-      <c r="D80" t="s">
-        <v>401</v>
-      </c>
-      <c r="E80" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B81" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C81" t="s">
+        <v>401</v>
+      </c>
+      <c r="E81" t="s">
         <v>403</v>
-      </c>
-      <c r="E81" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B82" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C82" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D82" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B83" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C83" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D83" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E83" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B84" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C84" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
